--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 04  ABRIL 2024/INVENTARIO ALMACEN   Abril-24 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 04  ABRIL 2024/INVENTARIO ALMACEN   Abril-24 rtr.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="110">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -431,6 +431,9 @@
       <t xml:space="preserve"> Y EN EL  FISICO NO REPORTO COMBOS</t>
     </r>
   </si>
+  <si>
+    <t>SIGUE PENDIENTE LA SALIDA DE LA MUESTRA</t>
+  </si>
 </sst>
 </file>
 
@@ -774,7 +777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,8 +862,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="94">
+  <borders count="100">
     <border>
       <left/>
       <right/>
@@ -2065,13 +2074,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2859,9 +2952,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2884,133 +2974,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3030,18 +2997,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="13" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3072,26 +3027,194 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="10" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="10" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="14" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="14" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="13" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="13" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="2" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="2" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="2" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3104,8 +3227,8 @@
   <colors>
     <mruColors>
       <color rgb="FFCCFF66"/>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCCCC00"/>
     </mruColors>
@@ -3417,10 +3540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="322"/>
+      <c r="B1" s="360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="360"/>
       <c r="H1" s="209"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3438,26 +3561,26 @@
         <v>45328</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="F2" s="323" t="s">
+      <c r="F2" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="324"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="327" t="s">
+      <c r="G2" s="362"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="327"/>
-      <c r="L2" s="328"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="366"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="331" t="s">
+      <c r="N2" s="369" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="331"/>
-      <c r="P2" s="332" t="s">
+      <c r="O2" s="369"/>
+      <c r="P2" s="370" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="333"/>
+      <c r="Q2" s="371"/>
       <c r="S2" s="12"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -3465,27 +3588,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13"/>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="374" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="375"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="338" t="s">
+      <c r="F3" s="376" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="339"/>
+      <c r="G3" s="377"/>
       <c r="H3" s="210"/>
-      <c r="I3" s="340" t="s">
+      <c r="I3" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="330"/>
+      <c r="J3" s="367"/>
+      <c r="K3" s="367"/>
+      <c r="L3" s="368"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="331"/>
-      <c r="O3" s="331"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="335"/>
+      <c r="N3" s="369"/>
+      <c r="O3" s="369"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="373"/>
       <c r="R3" s="16"/>
       <c r="S3" s="12"/>
       <c r="T3" s="6"/>
@@ -3512,7 +3635,7 @@
       <c r="H4" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="341"/>
+      <c r="I4" s="379"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
         <v>6</v>
@@ -3957,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="74"/>
-      <c r="S13" s="318" t="s">
+      <c r="S13" s="356" t="s">
         <v>62</v>
       </c>
       <c r="T13" s="6"/>
@@ -3996,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="75"/>
-      <c r="S14" s="319"/>
+      <c r="S14" s="357"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -4392,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="102"/>
-      <c r="S24" s="320"/>
+      <c r="S24" s="358"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
@@ -4429,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="103"/>
-      <c r="S25" s="320"/>
+      <c r="S25" s="358"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
@@ -5609,10 +5732,10 @@
     <row r="54" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="165"/>
       <c r="D54" s="167"/>
-      <c r="F54" s="321" t="s">
+      <c r="F54" s="359" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="321"/>
+      <c r="G54" s="359"/>
       <c r="H54" s="214">
         <f>SUM(H5:H35)</f>
         <v>49702.64</v>
@@ -5862,10 +5985,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="322"/>
+      <c r="B1" s="360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="360"/>
       <c r="H1" s="209"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5883,26 +6006,26 @@
         <v>45355</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="F2" s="323" t="s">
+      <c r="F2" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="324"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="327" t="s">
+      <c r="G2" s="362"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="327"/>
-      <c r="L2" s="328"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="366"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="331" t="s">
+      <c r="N2" s="369" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="331"/>
-      <c r="P2" s="332" t="s">
+      <c r="O2" s="369"/>
+      <c r="P2" s="370" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="333"/>
+      <c r="Q2" s="371"/>
       <c r="S2" s="257"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -5910,27 +6033,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13"/>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="374" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="375"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="338" t="s">
+      <c r="F3" s="376" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="339"/>
+      <c r="G3" s="377"/>
       <c r="H3" s="210"/>
-      <c r="I3" s="340" t="s">
+      <c r="I3" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="330"/>
+      <c r="J3" s="367"/>
+      <c r="K3" s="367"/>
+      <c r="L3" s="368"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="331"/>
-      <c r="O3" s="331"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="335"/>
+      <c r="N3" s="369"/>
+      <c r="O3" s="369"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="373"/>
       <c r="R3" s="16"/>
       <c r="S3" s="257"/>
       <c r="T3" s="6"/>
@@ -5957,7 +6080,7 @@
       <c r="H4" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="341"/>
+      <c r="I4" s="379"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
         <v>6</v>
@@ -6103,10 +6226,10 @@
         <v>43</v>
       </c>
       <c r="M7" s="36"/>
-      <c r="N7" s="345" t="s">
+      <c r="N7" s="383" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="346"/>
+      <c r="O7" s="384"/>
       <c r="P7" s="248">
         <f t="shared" ref="P7:P54" si="2">H7-K7</f>
         <v>-49.119999999999948</v>
@@ -6144,8 +6267,8 @@
       <c r="K8" s="44"/>
       <c r="L8" s="45"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="348"/>
+      <c r="N8" s="385"/>
+      <c r="O8" s="386"/>
       <c r="P8" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6189,8 +6312,8 @@
         <v>7</v>
       </c>
       <c r="M9" s="36"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="348"/>
+      <c r="N9" s="385"/>
+      <c r="O9" s="386"/>
       <c r="P9" s="39">
         <f t="shared" si="2"/>
         <v>0.81000000000000227</v>
@@ -6234,8 +6357,8 @@
         <v>2</v>
       </c>
       <c r="M10" s="36"/>
-      <c r="N10" s="347"/>
-      <c r="O10" s="348"/>
+      <c r="N10" s="385"/>
+      <c r="O10" s="386"/>
       <c r="P10" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6279,8 +6402,8 @@
         <v>18</v>
       </c>
       <c r="M11" s="36"/>
-      <c r="N11" s="347"/>
-      <c r="O11" s="348"/>
+      <c r="N11" s="385"/>
+      <c r="O11" s="386"/>
       <c r="P11" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6324,8 +6447,8 @@
         <v>12</v>
       </c>
       <c r="M12" s="69"/>
-      <c r="N12" s="347"/>
-      <c r="O12" s="348"/>
+      <c r="N12" s="385"/>
+      <c r="O12" s="386"/>
       <c r="P12" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6369,8 +6492,8 @@
         <v>125</v>
       </c>
       <c r="M13" s="69"/>
-      <c r="N13" s="347"/>
-      <c r="O13" s="348"/>
+      <c r="N13" s="385"/>
+      <c r="O13" s="386"/>
       <c r="P13" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6380,7 +6503,7 @@
         <v>-3</v>
       </c>
       <c r="R13" s="74"/>
-      <c r="S13" s="342"/>
+      <c r="S13" s="380"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -6406,8 +6529,8 @@
       <c r="K14" s="44"/>
       <c r="L14" s="45"/>
       <c r="M14" s="69"/>
-      <c r="N14" s="347"/>
-      <c r="O14" s="348"/>
+      <c r="N14" s="385"/>
+      <c r="O14" s="386"/>
       <c r="P14" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6417,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="75"/>
-      <c r="S14" s="343"/>
+      <c r="S14" s="381"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -6443,8 +6566,8 @@
       <c r="K15" s="44"/>
       <c r="L15" s="45"/>
       <c r="M15" s="69"/>
-      <c r="N15" s="347"/>
-      <c r="O15" s="348"/>
+      <c r="N15" s="385"/>
+      <c r="O15" s="386"/>
       <c r="P15" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6480,8 +6603,8 @@
       <c r="K16" s="44"/>
       <c r="L16" s="45"/>
       <c r="M16" s="69"/>
-      <c r="N16" s="347"/>
-      <c r="O16" s="348"/>
+      <c r="N16" s="385"/>
+      <c r="O16" s="386"/>
       <c r="P16" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6529,8 +6652,8 @@
         <v>100</v>
       </c>
       <c r="M17" s="69"/>
-      <c r="N17" s="347"/>
-      <c r="O17" s="348"/>
+      <c r="N17" s="385"/>
+      <c r="O17" s="386"/>
       <c r="P17" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6574,8 +6697,8 @@
         <v>466</v>
       </c>
       <c r="M18" s="69"/>
-      <c r="N18" s="347"/>
-      <c r="O18" s="348"/>
+      <c r="N18" s="385"/>
+      <c r="O18" s="386"/>
       <c r="P18" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6611,8 +6734,8 @@
       <c r="K19" s="44"/>
       <c r="L19" s="45"/>
       <c r="M19" s="69"/>
-      <c r="N19" s="347"/>
-      <c r="O19" s="348"/>
+      <c r="N19" s="385"/>
+      <c r="O19" s="386"/>
       <c r="P19" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6656,8 +6779,8 @@
         <v>112</v>
       </c>
       <c r="M20" s="69"/>
-      <c r="N20" s="347"/>
-      <c r="O20" s="348"/>
+      <c r="N20" s="385"/>
+      <c r="O20" s="386"/>
       <c r="P20" s="39">
         <f t="shared" si="2"/>
         <v>3.999999999996362E-2</v>
@@ -6695,8 +6818,8 @@
       <c r="K21" s="44"/>
       <c r="L21" s="45"/>
       <c r="M21" s="69"/>
-      <c r="N21" s="347"/>
-      <c r="O21" s="348"/>
+      <c r="N21" s="385"/>
+      <c r="O21" s="386"/>
       <c r="P21" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6732,8 +6855,8 @@
       <c r="K22" s="44"/>
       <c r="L22" s="45"/>
       <c r="M22" s="69"/>
-      <c r="N22" s="347"/>
-      <c r="O22" s="348"/>
+      <c r="N22" s="385"/>
+      <c r="O22" s="386"/>
       <c r="P22" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6769,8 +6892,8 @@
       <c r="K23" s="44"/>
       <c r="L23" s="45"/>
       <c r="M23" s="69"/>
-      <c r="N23" s="347"/>
-      <c r="O23" s="348"/>
+      <c r="N23" s="385"/>
+      <c r="O23" s="386"/>
       <c r="P23" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6810,8 +6933,8 @@
       <c r="K24" s="217"/>
       <c r="L24" s="218"/>
       <c r="M24" s="69"/>
-      <c r="N24" s="347"/>
-      <c r="O24" s="348"/>
+      <c r="N24" s="385"/>
+      <c r="O24" s="386"/>
       <c r="P24" s="248">
         <f t="shared" si="2"/>
         <v>821.22</v>
@@ -6821,7 +6944,7 @@
         <v>46</v>
       </c>
       <c r="R24" s="102"/>
-      <c r="S24" s="344" t="s">
+      <c r="S24" s="382" t="s">
         <v>79</v>
       </c>
       <c r="T24" s="6"/>
@@ -6849,8 +6972,8 @@
       <c r="K25" s="44"/>
       <c r="L25" s="45"/>
       <c r="M25" s="69"/>
-      <c r="N25" s="347"/>
-      <c r="O25" s="348"/>
+      <c r="N25" s="385"/>
+      <c r="O25" s="386"/>
       <c r="P25" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6860,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="103"/>
-      <c r="S25" s="344"/>
+      <c r="S25" s="382"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
@@ -6894,8 +7017,8 @@
         <v>302</v>
       </c>
       <c r="M26" s="69"/>
-      <c r="N26" s="347"/>
-      <c r="O26" s="348"/>
+      <c r="N26" s="385"/>
+      <c r="O26" s="386"/>
       <c r="P26" s="39">
         <f t="shared" si="2"/>
         <v>-0.39000000000010004</v>
@@ -6931,8 +7054,8 @@
       <c r="K27" s="44"/>
       <c r="L27" s="45"/>
       <c r="M27" s="69"/>
-      <c r="N27" s="347"/>
-      <c r="O27" s="348"/>
+      <c r="N27" s="385"/>
+      <c r="O27" s="386"/>
       <c r="P27" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6976,8 +7099,8 @@
         <v>1010</v>
       </c>
       <c r="M28" s="69"/>
-      <c r="N28" s="347"/>
-      <c r="O28" s="348"/>
+      <c r="N28" s="385"/>
+      <c r="O28" s="386"/>
       <c r="P28" s="39">
         <f t="shared" si="2"/>
         <v>-0.38999999999941792</v>
@@ -7013,8 +7136,8 @@
       <c r="K29" s="44"/>
       <c r="L29" s="45"/>
       <c r="M29" s="69"/>
-      <c r="N29" s="347"/>
-      <c r="O29" s="348"/>
+      <c r="N29" s="385"/>
+      <c r="O29" s="386"/>
       <c r="P29" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7050,8 +7173,8 @@
       <c r="K30" s="44"/>
       <c r="L30" s="45"/>
       <c r="M30" s="69"/>
-      <c r="N30" s="347"/>
-      <c r="O30" s="348"/>
+      <c r="N30" s="385"/>
+      <c r="O30" s="386"/>
       <c r="P30" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7099,8 +7222,8 @@
         <v>465</v>
       </c>
       <c r="M31" s="69"/>
-      <c r="N31" s="347"/>
-      <c r="O31" s="348"/>
+      <c r="N31" s="385"/>
+      <c r="O31" s="386"/>
       <c r="P31" s="39">
         <f t="shared" si="2"/>
         <v>-2.6999999999998181</v>
@@ -7136,8 +7259,8 @@
       <c r="K32" s="44"/>
       <c r="L32" s="45"/>
       <c r="M32" s="69"/>
-      <c r="N32" s="347"/>
-      <c r="O32" s="348"/>
+      <c r="N32" s="385"/>
+      <c r="O32" s="386"/>
       <c r="P32" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7181,8 +7304,8 @@
         <v>647</v>
       </c>
       <c r="M33" s="69"/>
-      <c r="N33" s="347"/>
-      <c r="O33" s="348"/>
+      <c r="N33" s="385"/>
+      <c r="O33" s="386"/>
       <c r="P33" s="39">
         <f t="shared" si="2"/>
         <v>2.7200000000011642</v>
@@ -7226,8 +7349,8 @@
         <v>89</v>
       </c>
       <c r="M34" s="69"/>
-      <c r="N34" s="347"/>
-      <c r="O34" s="348"/>
+      <c r="N34" s="385"/>
+      <c r="O34" s="386"/>
       <c r="P34" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7271,8 +7394,8 @@
         <v>283</v>
       </c>
       <c r="M35" s="69"/>
-      <c r="N35" s="347"/>
-      <c r="O35" s="348"/>
+      <c r="N35" s="385"/>
+      <c r="O35" s="386"/>
       <c r="P35" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7316,8 +7439,8 @@
         <v>105</v>
       </c>
       <c r="M36" s="69"/>
-      <c r="N36" s="347"/>
-      <c r="O36" s="348"/>
+      <c r="N36" s="385"/>
+      <c r="O36" s="386"/>
       <c r="P36" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7361,8 +7484,8 @@
         <v>92</v>
       </c>
       <c r="M37" s="69"/>
-      <c r="N37" s="347"/>
-      <c r="O37" s="348"/>
+      <c r="N37" s="385"/>
+      <c r="O37" s="386"/>
       <c r="P37" s="248">
         <f t="shared" si="2"/>
         <v>-15.599999999999909</v>
@@ -7400,8 +7523,8 @@
       <c r="K38" s="44"/>
       <c r="L38" s="45"/>
       <c r="M38" s="69"/>
-      <c r="N38" s="347"/>
-      <c r="O38" s="348"/>
+      <c r="N38" s="385"/>
+      <c r="O38" s="386"/>
       <c r="P38" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7437,8 +7560,8 @@
       <c r="K39" s="44"/>
       <c r="L39" s="45"/>
       <c r="M39" s="69"/>
-      <c r="N39" s="347"/>
-      <c r="O39" s="348"/>
+      <c r="N39" s="385"/>
+      <c r="O39" s="386"/>
       <c r="P39" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7475,8 +7598,8 @@
       <c r="K40" s="44"/>
       <c r="L40" s="45"/>
       <c r="M40" s="69"/>
-      <c r="N40" s="347"/>
-      <c r="O40" s="348"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="386"/>
       <c r="P40" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7516,8 +7639,8 @@
       <c r="K41" s="217"/>
       <c r="L41" s="218"/>
       <c r="M41" s="69"/>
-      <c r="N41" s="347"/>
-      <c r="O41" s="348"/>
+      <c r="N41" s="385"/>
+      <c r="O41" s="386"/>
       <c r="P41" s="221">
         <f t="shared" si="2"/>
         <v>922.6</v>
@@ -7555,8 +7678,8 @@
       <c r="K42" s="44"/>
       <c r="L42" s="45"/>
       <c r="M42" s="69"/>
-      <c r="N42" s="347"/>
-      <c r="O42" s="348"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="39"/>
       <c r="Q42" s="40"/>
       <c r="R42" s="129"/>
@@ -7586,8 +7709,8 @@
       <c r="K43" s="132"/>
       <c r="L43" s="133"/>
       <c r="M43" s="69"/>
-      <c r="N43" s="347"/>
-      <c r="O43" s="348"/>
+      <c r="N43" s="385"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7623,8 +7746,8 @@
       <c r="K44" s="136"/>
       <c r="L44" s="137"/>
       <c r="M44" s="135"/>
-      <c r="N44" s="347"/>
-      <c r="O44" s="348"/>
+      <c r="N44" s="385"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7660,8 +7783,8 @@
       <c r="K45" s="136"/>
       <c r="L45" s="137"/>
       <c r="M45" s="135"/>
-      <c r="N45" s="347"/>
-      <c r="O45" s="348"/>
+      <c r="N45" s="385"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7697,8 +7820,8 @@
       <c r="K46" s="136"/>
       <c r="L46" s="137"/>
       <c r="M46" s="135"/>
-      <c r="N46" s="347"/>
-      <c r="O46" s="348"/>
+      <c r="N46" s="385"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7734,8 +7857,8 @@
       <c r="K47" s="136"/>
       <c r="L47" s="137"/>
       <c r="M47" s="135"/>
-      <c r="N47" s="347"/>
-      <c r="O47" s="348"/>
+      <c r="N47" s="385"/>
+      <c r="O47" s="386"/>
       <c r="P47" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7771,8 +7894,8 @@
       <c r="K48" s="136"/>
       <c r="L48" s="137"/>
       <c r="M48" s="135"/>
-      <c r="N48" s="347"/>
-      <c r="O48" s="348"/>
+      <c r="N48" s="385"/>
+      <c r="O48" s="386"/>
       <c r="P48" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7816,8 +7939,8 @@
         <v>20</v>
       </c>
       <c r="M49" s="135"/>
-      <c r="N49" s="347"/>
-      <c r="O49" s="348"/>
+      <c r="N49" s="385"/>
+      <c r="O49" s="386"/>
       <c r="P49" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7853,8 +7976,8 @@
       <c r="K50" s="219"/>
       <c r="L50" s="220"/>
       <c r="M50" s="135"/>
-      <c r="N50" s="347"/>
-      <c r="O50" s="348"/>
+      <c r="N50" s="385"/>
+      <c r="O50" s="386"/>
       <c r="P50" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7894,8 +8017,8 @@
       <c r="K51" s="136"/>
       <c r="L51" s="137"/>
       <c r="M51" s="135"/>
-      <c r="N51" s="349"/>
-      <c r="O51" s="350"/>
+      <c r="N51" s="387"/>
+      <c r="O51" s="388"/>
       <c r="P51" s="248">
         <f t="shared" si="2"/>
         <v>26.22</v>
@@ -8022,10 +8145,10 @@
     <row r="55" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="165"/>
       <c r="D55" s="167"/>
-      <c r="F55" s="321" t="s">
+      <c r="F55" s="359" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="321"/>
+      <c r="G55" s="359"/>
       <c r="H55" s="214">
         <f>SUM(H5:H36)</f>
         <v>79109.539999999994</v>
@@ -8276,10 +8399,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="322"/>
+      <c r="B1" s="360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="360"/>
       <c r="H1" s="209"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -8297,26 +8420,26 @@
         <v>45386</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="F2" s="323" t="s">
+      <c r="F2" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="324"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="327" t="s">
+      <c r="G2" s="362"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="327"/>
-      <c r="L2" s="328"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="366"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="331" t="s">
+      <c r="N2" s="369" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="331"/>
-      <c r="P2" s="332" t="s">
+      <c r="O2" s="369"/>
+      <c r="P2" s="370" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="333"/>
+      <c r="Q2" s="371"/>
       <c r="S2" s="257"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -8324,27 +8447,27 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13"/>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="374" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="375"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="338" t="s">
+      <c r="F3" s="376" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="339"/>
+      <c r="G3" s="377"/>
       <c r="H3" s="210"/>
-      <c r="I3" s="340" t="s">
+      <c r="I3" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="330"/>
+      <c r="J3" s="367"/>
+      <c r="K3" s="367"/>
+      <c r="L3" s="368"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="331"/>
-      <c r="O3" s="331"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="335"/>
+      <c r="N3" s="369"/>
+      <c r="O3" s="369"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="373"/>
       <c r="R3" s="16"/>
       <c r="S3" s="257"/>
       <c r="T3" s="6"/>
@@ -8371,7 +8494,7 @@
       <c r="H4" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="341"/>
+      <c r="I4" s="379"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
         <v>6</v>
@@ -8513,10 +8636,10 @@
         <v>6</v>
       </c>
       <c r="M7" s="36"/>
-      <c r="N7" s="345" t="s">
+      <c r="N7" s="383" t="s">
         <v>95</v>
       </c>
-      <c r="O7" s="346"/>
+      <c r="O7" s="384"/>
       <c r="P7" s="291">
         <f t="shared" ref="P7:P56" si="2">H7-K7</f>
         <v>0</v>
@@ -8560,8 +8683,8 @@
         <v>257</v>
       </c>
       <c r="M8" s="36"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="348"/>
+      <c r="N8" s="385"/>
+      <c r="O8" s="386"/>
       <c r="P8" s="297">
         <f t="shared" si="2"/>
         <v>-232.69000000000005</v>
@@ -8607,8 +8730,8 @@
         <v>9</v>
       </c>
       <c r="M9" s="36"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="348"/>
+      <c r="N9" s="385"/>
+      <c r="O9" s="386"/>
       <c r="P9" s="291">
         <f t="shared" si="2"/>
         <v>-1.8700000000000045</v>
@@ -8644,8 +8767,8 @@
       <c r="K10" s="292"/>
       <c r="L10" s="45"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="347"/>
-      <c r="O10" s="348"/>
+      <c r="N10" s="385"/>
+      <c r="O10" s="386"/>
       <c r="P10" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8689,8 +8812,8 @@
         <v>12</v>
       </c>
       <c r="M11" s="36"/>
-      <c r="N11" s="347"/>
-      <c r="O11" s="348"/>
+      <c r="N11" s="385"/>
+      <c r="O11" s="386"/>
       <c r="P11" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8734,8 +8857,8 @@
         <v>0</v>
       </c>
       <c r="M12" s="69"/>
-      <c r="N12" s="347"/>
-      <c r="O12" s="348"/>
+      <c r="N12" s="385"/>
+      <c r="O12" s="386"/>
       <c r="P12" s="306">
         <f t="shared" si="2"/>
         <v>-10</v>
@@ -8781,8 +8904,8 @@
         <v>13</v>
       </c>
       <c r="M13" s="69"/>
-      <c r="N13" s="347"/>
-      <c r="O13" s="348"/>
+      <c r="N13" s="385"/>
+      <c r="O13" s="386"/>
       <c r="P13" s="291">
         <f t="shared" ref="P13:P14" si="5">H13-K13</f>
         <v>0</v>
@@ -8826,8 +8949,8 @@
         <v>19</v>
       </c>
       <c r="M14" s="69"/>
-      <c r="N14" s="347"/>
-      <c r="O14" s="348"/>
+      <c r="N14" s="385"/>
+      <c r="O14" s="386"/>
       <c r="P14" s="291">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8837,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="74"/>
-      <c r="S14" s="342"/>
+      <c r="S14" s="380"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -8871,8 +8994,8 @@
         <v>33</v>
       </c>
       <c r="M15" s="69"/>
-      <c r="N15" s="347"/>
-      <c r="O15" s="348"/>
+      <c r="N15" s="385"/>
+      <c r="O15" s="386"/>
       <c r="P15" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8882,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="75"/>
-      <c r="S15" s="343"/>
+      <c r="S15" s="381"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -8908,8 +9031,8 @@
       <c r="K16" s="292"/>
       <c r="L16" s="45"/>
       <c r="M16" s="69"/>
-      <c r="N16" s="347"/>
-      <c r="O16" s="348"/>
+      <c r="N16" s="385"/>
+      <c r="O16" s="386"/>
       <c r="P16" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8945,8 +9068,8 @@
       <c r="K17" s="292"/>
       <c r="L17" s="45"/>
       <c r="M17" s="69"/>
-      <c r="N17" s="347"/>
-      <c r="O17" s="348"/>
+      <c r="N17" s="385"/>
+      <c r="O17" s="386"/>
       <c r="P17" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8990,8 +9113,8 @@
         <v>162</v>
       </c>
       <c r="M18" s="69"/>
-      <c r="N18" s="347"/>
-      <c r="O18" s="348"/>
+      <c r="N18" s="385"/>
+      <c r="O18" s="386"/>
       <c r="P18" s="297">
         <f t="shared" si="2"/>
         <v>206.73000000000002</v>
@@ -9029,8 +9152,8 @@
       <c r="K19" s="292"/>
       <c r="L19" s="45"/>
       <c r="M19" s="69"/>
-      <c r="N19" s="347"/>
-      <c r="O19" s="348"/>
+      <c r="N19" s="385"/>
+      <c r="O19" s="386"/>
       <c r="P19" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9066,8 +9189,8 @@
       <c r="K20" s="292"/>
       <c r="L20" s="45"/>
       <c r="M20" s="69"/>
-      <c r="N20" s="347"/>
-      <c r="O20" s="348"/>
+      <c r="N20" s="385"/>
+      <c r="O20" s="386"/>
       <c r="P20" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9111,8 +9234,8 @@
         <v>30</v>
       </c>
       <c r="M21" s="69"/>
-      <c r="N21" s="347"/>
-      <c r="O21" s="348"/>
+      <c r="N21" s="385"/>
+      <c r="O21" s="386"/>
       <c r="P21" s="291">
         <f t="shared" si="2"/>
         <v>9.0000000000031832E-2</v>
@@ -9148,8 +9271,8 @@
       <c r="K22" s="292"/>
       <c r="L22" s="45"/>
       <c r="M22" s="69"/>
-      <c r="N22" s="347"/>
-      <c r="O22" s="348"/>
+      <c r="N22" s="385"/>
+      <c r="O22" s="386"/>
       <c r="P22" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9185,8 +9308,8 @@
       <c r="K23" s="292"/>
       <c r="L23" s="45"/>
       <c r="M23" s="69"/>
-      <c r="N23" s="347"/>
-      <c r="O23" s="348"/>
+      <c r="N23" s="385"/>
+      <c r="O23" s="386"/>
       <c r="P23" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9222,8 +9345,8 @@
       <c r="K24" s="292"/>
       <c r="L24" s="45"/>
       <c r="M24" s="69"/>
-      <c r="N24" s="347"/>
-      <c r="O24" s="348"/>
+      <c r="N24" s="385"/>
+      <c r="O24" s="386"/>
       <c r="P24" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9267,8 +9390,8 @@
         <v>0</v>
       </c>
       <c r="M25" s="69"/>
-      <c r="N25" s="347"/>
-      <c r="O25" s="348"/>
+      <c r="N25" s="385"/>
+      <c r="O25" s="386"/>
       <c r="P25" s="291">
         <f t="shared" si="2"/>
         <v>821.22</v>
@@ -9278,7 +9401,7 @@
         <v>46</v>
       </c>
       <c r="R25" s="102"/>
-      <c r="S25" s="351" t="s">
+      <c r="S25" s="389" t="s">
         <v>90</v>
       </c>
       <c r="T25" s="6"/>
@@ -9306,8 +9429,8 @@
       <c r="K26" s="292"/>
       <c r="L26" s="45"/>
       <c r="M26" s="69"/>
-      <c r="N26" s="347"/>
-      <c r="O26" s="348"/>
+      <c r="N26" s="385"/>
+      <c r="O26" s="386"/>
       <c r="P26" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9317,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="103"/>
-      <c r="S26" s="351"/>
+      <c r="S26" s="389"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
@@ -9351,8 +9474,8 @@
         <v>237</v>
       </c>
       <c r="M27" s="69"/>
-      <c r="N27" s="347"/>
-      <c r="O27" s="348"/>
+      <c r="N27" s="385"/>
+      <c r="O27" s="386"/>
       <c r="P27" s="291">
         <f t="shared" si="2"/>
         <v>-0.58999999999991815</v>
@@ -9396,8 +9519,8 @@
         <v>46</v>
       </c>
       <c r="M28" s="69"/>
-      <c r="N28" s="347"/>
-      <c r="O28" s="348"/>
+      <c r="N28" s="385"/>
+      <c r="O28" s="386"/>
       <c r="P28" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9441,8 +9564,8 @@
         <v>1010</v>
       </c>
       <c r="M29" s="69"/>
-      <c r="N29" s="347"/>
-      <c r="O29" s="348"/>
+      <c r="N29" s="385"/>
+      <c r="O29" s="386"/>
       <c r="P29" s="291">
         <f t="shared" si="2"/>
         <v>-0.38999999999941792</v>
@@ -9478,8 +9601,8 @@
       <c r="K30" s="292"/>
       <c r="L30" s="45"/>
       <c r="M30" s="69"/>
-      <c r="N30" s="347"/>
-      <c r="O30" s="348"/>
+      <c r="N30" s="385"/>
+      <c r="O30" s="386"/>
       <c r="P30" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9523,8 +9646,8 @@
         <v>809</v>
       </c>
       <c r="M31" s="69"/>
-      <c r="N31" s="347"/>
-      <c r="O31" s="348"/>
+      <c r="N31" s="385"/>
+      <c r="O31" s="386"/>
       <c r="P31" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9568,8 +9691,8 @@
         <v>1212</v>
       </c>
       <c r="M32" s="69"/>
-      <c r="N32" s="347"/>
-      <c r="O32" s="348"/>
+      <c r="N32" s="385"/>
+      <c r="O32" s="386"/>
       <c r="P32" s="297">
         <f t="shared" si="2"/>
         <v>-4398.7900000000009</v>
@@ -9607,8 +9730,8 @@
       <c r="K33" s="292"/>
       <c r="L33" s="45"/>
       <c r="M33" s="69"/>
-      <c r="N33" s="347"/>
-      <c r="O33" s="348"/>
+      <c r="N33" s="385"/>
+      <c r="O33" s="386"/>
       <c r="P33" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9658,8 +9781,8 @@
         <v>767</v>
       </c>
       <c r="M34" s="69"/>
-      <c r="N34" s="347"/>
-      <c r="O34" s="348"/>
+      <c r="N34" s="385"/>
+      <c r="O34" s="386"/>
       <c r="P34" s="297">
         <f t="shared" si="2"/>
         <v>-24.520000000000437</v>
@@ -9705,8 +9828,8 @@
         <v>373</v>
       </c>
       <c r="M35" s="69"/>
-      <c r="N35" s="347"/>
-      <c r="O35" s="348"/>
+      <c r="N35" s="385"/>
+      <c r="O35" s="386"/>
       <c r="P35" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9750,8 +9873,8 @@
         <v>272</v>
       </c>
       <c r="M36" s="69"/>
-      <c r="N36" s="347"/>
-      <c r="O36" s="348"/>
+      <c r="N36" s="385"/>
+      <c r="O36" s="386"/>
       <c r="P36" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9787,8 +9910,8 @@
       <c r="K37" s="292"/>
       <c r="L37" s="45"/>
       <c r="M37" s="69"/>
-      <c r="N37" s="347"/>
-      <c r="O37" s="348"/>
+      <c r="N37" s="385"/>
+      <c r="O37" s="386"/>
       <c r="P37" s="291">
         <f t="shared" ref="P37:P39" si="9">H37-K37</f>
         <v>0</v>
@@ -9832,8 +9955,8 @@
         <v>294</v>
       </c>
       <c r="M38" s="69"/>
-      <c r="N38" s="347"/>
-      <c r="O38" s="348"/>
+      <c r="N38" s="385"/>
+      <c r="O38" s="386"/>
       <c r="P38" s="291">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9879,8 +10002,8 @@
         <v>85</v>
       </c>
       <c r="M39" s="69"/>
-      <c r="N39" s="347"/>
-      <c r="O39" s="348"/>
+      <c r="N39" s="385"/>
+      <c r="O39" s="386"/>
       <c r="P39" s="291">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9916,8 +10039,8 @@
       <c r="K40" s="292"/>
       <c r="L40" s="45"/>
       <c r="M40" s="69"/>
-      <c r="N40" s="347"/>
-      <c r="O40" s="348"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="386"/>
       <c r="P40" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9961,8 +10084,8 @@
         <v>114</v>
       </c>
       <c r="M41" s="69"/>
-      <c r="N41" s="347"/>
-      <c r="O41" s="348"/>
+      <c r="N41" s="385"/>
+      <c r="O41" s="386"/>
       <c r="P41" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10007,8 +10130,8 @@
         <v>229</v>
       </c>
       <c r="M42" s="69"/>
-      <c r="N42" s="347"/>
-      <c r="O42" s="348"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="297">
         <f t="shared" si="2"/>
         <v>8.4799999999995634</v>
@@ -10050,8 +10173,8 @@
       <c r="K43" s="292"/>
       <c r="L43" s="45"/>
       <c r="M43" s="69"/>
-      <c r="N43" s="347"/>
-      <c r="O43" s="348"/>
+      <c r="N43" s="385"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="304">
         <f t="shared" si="2"/>
         <v>922.6</v>
@@ -10089,8 +10212,8 @@
       <c r="K44" s="292"/>
       <c r="L44" s="45"/>
       <c r="M44" s="69"/>
-      <c r="N44" s="347"/>
-      <c r="O44" s="348"/>
+      <c r="N44" s="385"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10126,8 +10249,8 @@
       <c r="K45" s="294"/>
       <c r="L45" s="133"/>
       <c r="M45" s="69"/>
-      <c r="N45" s="347"/>
-      <c r="O45" s="348"/>
+      <c r="N45" s="385"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10163,8 +10286,8 @@
       <c r="K46" s="295"/>
       <c r="L46" s="137"/>
       <c r="M46" s="135"/>
-      <c r="N46" s="347"/>
-      <c r="O46" s="348"/>
+      <c r="N46" s="385"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10200,8 +10323,8 @@
       <c r="K47" s="295"/>
       <c r="L47" s="137"/>
       <c r="M47" s="135"/>
-      <c r="N47" s="347"/>
-      <c r="O47" s="348"/>
+      <c r="N47" s="385"/>
+      <c r="O47" s="386"/>
       <c r="P47" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10237,8 +10360,8 @@
       <c r="K48" s="295"/>
       <c r="L48" s="137"/>
       <c r="M48" s="135"/>
-      <c r="N48" s="347"/>
-      <c r="O48" s="348"/>
+      <c r="N48" s="385"/>
+      <c r="O48" s="386"/>
       <c r="P48" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10274,8 +10397,8 @@
       <c r="K49" s="295"/>
       <c r="L49" s="137"/>
       <c r="M49" s="135"/>
-      <c r="N49" s="347"/>
-      <c r="O49" s="348"/>
+      <c r="N49" s="385"/>
+      <c r="O49" s="386"/>
       <c r="P49" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10311,8 +10434,8 @@
       <c r="K50" s="295"/>
       <c r="L50" s="137"/>
       <c r="M50" s="135"/>
-      <c r="N50" s="347"/>
-      <c r="O50" s="348"/>
+      <c r="N50" s="385"/>
+      <c r="O50" s="386"/>
       <c r="P50" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10356,8 +10479,8 @@
         <v>3</v>
       </c>
       <c r="M51" s="135"/>
-      <c r="N51" s="347"/>
-      <c r="O51" s="348"/>
+      <c r="N51" s="385"/>
+      <c r="O51" s="386"/>
       <c r="P51" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10393,8 +10516,8 @@
       <c r="K52" s="295"/>
       <c r="L52" s="137"/>
       <c r="M52" s="135"/>
-      <c r="N52" s="347"/>
-      <c r="O52" s="348"/>
+      <c r="N52" s="385"/>
+      <c r="O52" s="386"/>
       <c r="P52" s="291">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10434,8 +10557,8 @@
       <c r="K53" s="295"/>
       <c r="L53" s="137"/>
       <c r="M53" s="135"/>
-      <c r="N53" s="349"/>
-      <c r="O53" s="350"/>
+      <c r="N53" s="387"/>
+      <c r="O53" s="388"/>
       <c r="P53" s="297">
         <f t="shared" si="2"/>
         <v>26.22</v>
@@ -10562,10 +10685,10 @@
     <row r="57" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="165"/>
       <c r="D57" s="167"/>
-      <c r="F57" s="321" t="s">
+      <c r="F57" s="359" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="321"/>
+      <c r="G57" s="359"/>
       <c r="H57" s="214">
         <f>SUM(H5:H37)</f>
         <v>94156.18</v>
@@ -10789,39 +10912,40 @@
   <dimension ref="A2:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="166" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="215" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="215" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="13" style="180" customWidth="1"/>
-    <col min="17" max="17" width="10" style="166" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10" style="180" customWidth="1"/>
+    <col min="17" max="17" width="8" style="166" customWidth="1"/>
     <col min="18" max="18" width="3.5703125" style="11" customWidth="1"/>
     <col min="19" max="19" width="41" style="256" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="322"/>
+      <c r="B2" s="360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="360"/>
       <c r="H2" s="209"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -10839,26 +10963,26 @@
         <v>45410</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="F3" s="323" t="s">
+      <c r="F3" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="324"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="327" t="s">
+      <c r="G3" s="362"/>
+      <c r="H3" s="363"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="327"/>
-      <c r="L3" s="328"/>
+      <c r="K3" s="365"/>
+      <c r="L3" s="366"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="352" t="s">
+      <c r="N3" s="395" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="353"/>
-      <c r="P3" s="333" t="s">
+      <c r="O3" s="396"/>
+      <c r="P3" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="333"/>
+      <c r="Q3" s="393"/>
       <c r="S3" s="257"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
@@ -10866,27 +10990,27 @@
     </row>
     <row r="4" spans="2:26" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
-      <c r="C4" s="336" t="s">
+      <c r="C4" s="374" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="337"/>
+      <c r="D4" s="375"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="338" t="s">
+      <c r="F4" s="376" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="339"/>
+      <c r="G4" s="377"/>
       <c r="H4" s="210"/>
-      <c r="I4" s="340" t="s">
+      <c r="I4" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="329"/>
-      <c r="K4" s="329"/>
-      <c r="L4" s="330"/>
+      <c r="J4" s="367"/>
+      <c r="K4" s="367"/>
+      <c r="L4" s="368"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="354"/>
-      <c r="O4" s="355"/>
-      <c r="P4" s="335"/>
-      <c r="Q4" s="335"/>
+      <c r="N4" s="397"/>
+      <c r="O4" s="398"/>
+      <c r="P4" s="394"/>
+      <c r="Q4" s="394"/>
       <c r="R4" s="16"/>
       <c r="S4" s="257"/>
       <c r="T4" s="6"/>
@@ -10913,7 +11037,7 @@
       <c r="H5" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="341"/>
+      <c r="I5" s="379"/>
       <c r="J5" s="20"/>
       <c r="K5" s="21" t="s">
         <v>6</v>
@@ -10922,10 +11046,10 @@
         <v>9</v>
       </c>
       <c r="M5" s="15"/>
-      <c r="N5" s="310" t="s">
+      <c r="N5" s="309" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="310" t="s">
+      <c r="O5" s="309" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="25" t="s">
@@ -11006,17 +11130,17 @@
         <v>10</v>
       </c>
       <c r="M7" s="36"/>
-      <c r="N7" s="312">
+      <c r="N7" s="311">
         <v>296.04000000000002</v>
       </c>
-      <c r="O7" s="313">
+      <c r="O7" s="312">
         <v>10</v>
       </c>
-      <c r="P7" s="291">
+      <c r="P7" s="342">
         <f>H7-N7</f>
         <v>6</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="343">
         <f>I7-O7</f>
         <v>0</v>
       </c>
@@ -11059,17 +11183,17 @@
         <v>31</v>
       </c>
       <c r="M8" s="36"/>
-      <c r="N8" s="314">
+      <c r="N8" s="313">
         <v>378.28</v>
       </c>
-      <c r="O8" s="315">
+      <c r="O8" s="314">
         <v>31</v>
       </c>
-      <c r="P8" s="291">
+      <c r="P8" s="344">
         <f t="shared" ref="P8:P58" si="1">H8-N8</f>
         <v>-2.9999999999972715E-2</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="345">
         <f t="shared" ref="Q8:Q58" si="2">I8-O8</f>
         <v>0</v>
       </c>
@@ -11108,22 +11232,22 @@
         <v>18</v>
       </c>
       <c r="M9" s="36"/>
-      <c r="N9" s="314">
+      <c r="N9" s="313">
         <v>208.6</v>
       </c>
-      <c r="O9" s="315">
+      <c r="O9" s="314">
         <v>18</v>
       </c>
-      <c r="P9" s="291">
+      <c r="P9" s="344">
         <f t="shared" si="1"/>
         <v>-2.0099999999999909</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="53"/>
-      <c r="S9" s="356" t="s">
+      <c r="S9" s="317" t="s">
         <v>99</v>
       </c>
       <c r="T9" s="6"/>
@@ -11152,29 +11276,29 @@
         <v>155</v>
       </c>
       <c r="J10" s="33"/>
-      <c r="K10" s="378">
+      <c r="K10" s="332">
         <v>1079.1199999999999</v>
       </c>
       <c r="L10" s="45">
         <v>155</v>
       </c>
       <c r="M10" s="36"/>
-      <c r="N10" s="364">
+      <c r="N10" s="322">
         <v>900.67</v>
       </c>
-      <c r="O10" s="365">
+      <c r="O10" s="323">
         <v>37</v>
       </c>
-      <c r="P10" s="291">
+      <c r="P10" s="344">
         <f>H10-N10</f>
         <v>178.44999999999993</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="345">
         <f>I10-O10</f>
         <v>118</v>
       </c>
       <c r="R10" s="57"/>
-      <c r="S10" s="381" t="s">
+      <c r="S10" s="335" t="s">
         <v>106</v>
       </c>
       <c r="T10" s="6"/>
@@ -11210,17 +11334,17 @@
         <v>62</v>
       </c>
       <c r="M11" s="36"/>
-      <c r="N11" s="314">
+      <c r="N11" s="313">
         <v>620</v>
       </c>
-      <c r="O11" s="315">
+      <c r="O11" s="314">
         <v>62</v>
       </c>
-      <c r="P11" s="291">
+      <c r="P11" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="40">
+      <c r="Q11" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11251,13 +11375,13 @@
       <c r="K12" s="292"/>
       <c r="L12" s="45"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="314"/>
-      <c r="O12" s="315"/>
-      <c r="P12" s="291">
+      <c r="N12" s="313"/>
+      <c r="O12" s="314"/>
+      <c r="P12" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="Q12" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11296,17 +11420,17 @@
         <v>12</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="314">
+      <c r="N13" s="313">
         <v>120</v>
       </c>
-      <c r="O13" s="315">
+      <c r="O13" s="314">
         <v>12</v>
       </c>
-      <c r="P13" s="291">
+      <c r="P13" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="40">
+      <c r="Q13" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11320,8 +11444,8 @@
       <c r="B14" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="367"/>
+      <c r="C14" s="324"/>
+      <c r="D14" s="325"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29">
         <v>130</v>
@@ -11345,17 +11469,17 @@
         <v>13</v>
       </c>
       <c r="M14" s="69"/>
-      <c r="N14" s="314">
+      <c r="N14" s="313">
         <v>130</v>
       </c>
-      <c r="O14" s="315">
+      <c r="O14" s="314">
         <v>13</v>
       </c>
-      <c r="P14" s="382">
+      <c r="P14" s="346">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="383">
+      <c r="Q14" s="347">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11394,17 +11518,17 @@
         <v>2</v>
       </c>
       <c r="M15" s="69"/>
-      <c r="N15" s="314">
+      <c r="N15" s="313">
         <v>20</v>
       </c>
-      <c r="O15" s="315">
+      <c r="O15" s="314">
         <v>2</v>
       </c>
-      <c r="P15" s="291">
+      <c r="P15" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11443,18 +11567,18 @@
         <v>2</v>
       </c>
       <c r="M16" s="69"/>
-      <c r="N16" s="314"/>
-      <c r="O16" s="315"/>
-      <c r="P16" s="370">
+      <c r="N16" s="313"/>
+      <c r="O16" s="314"/>
+      <c r="P16" s="348">
         <f t="shared" si="1"/>
         <v>86.45</v>
       </c>
-      <c r="Q16" s="371">
+      <c r="Q16" s="349">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R16" s="384"/>
-      <c r="S16" s="386" t="s">
+      <c r="R16" s="336"/>
+      <c r="S16" s="390" t="s">
         <v>107</v>
       </c>
       <c r="T16" s="6"/>
@@ -11490,22 +11614,22 @@
         <v>14</v>
       </c>
       <c r="M17" s="69"/>
-      <c r="N17" s="314">
+      <c r="N17" s="313">
         <v>491.35</v>
       </c>
-      <c r="O17" s="315">
+      <c r="O17" s="314">
         <v>16</v>
       </c>
-      <c r="P17" s="370">
+      <c r="P17" s="348">
         <f t="shared" si="1"/>
         <v>-85.12</v>
       </c>
-      <c r="Q17" s="371">
+      <c r="Q17" s="349">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="R17" s="385"/>
-      <c r="S17" s="387"/>
+      <c r="R17" s="337"/>
+      <c r="S17" s="391"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -11531,13 +11655,13 @@
       <c r="K18" s="292"/>
       <c r="L18" s="45"/>
       <c r="M18" s="69"/>
-      <c r="N18" s="314"/>
-      <c r="O18" s="315"/>
-      <c r="P18" s="291">
+      <c r="N18" s="313"/>
+      <c r="O18" s="314"/>
+      <c r="P18" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="Q18" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11568,13 +11692,13 @@
       <c r="K19" s="292"/>
       <c r="L19" s="45"/>
       <c r="M19" s="69"/>
-      <c r="N19" s="314"/>
-      <c r="O19" s="315"/>
-      <c r="P19" s="291">
+      <c r="N19" s="313"/>
+      <c r="O19" s="314"/>
+      <c r="P19" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="40">
+      <c r="Q19" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11613,17 +11737,17 @@
         <v>161</v>
       </c>
       <c r="M20" s="69"/>
-      <c r="N20" s="314">
+      <c r="N20" s="313">
         <v>4544.7</v>
       </c>
-      <c r="O20" s="315">
+      <c r="O20" s="314">
         <v>161</v>
       </c>
-      <c r="P20" s="291">
+      <c r="P20" s="344">
         <f t="shared" si="1"/>
         <v>5.0000000000181899E-2</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="Q20" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11654,13 +11778,13 @@
       <c r="K21" s="292"/>
       <c r="L21" s="45"/>
       <c r="M21" s="69"/>
-      <c r="N21" s="314"/>
-      <c r="O21" s="315"/>
-      <c r="P21" s="291">
+      <c r="N21" s="313"/>
+      <c r="O21" s="314"/>
+      <c r="P21" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="40">
+      <c r="Q21" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11691,13 +11815,13 @@
       <c r="K22" s="292"/>
       <c r="L22" s="45"/>
       <c r="M22" s="69"/>
-      <c r="N22" s="314"/>
-      <c r="O22" s="315"/>
-      <c r="P22" s="291">
+      <c r="N22" s="313"/>
+      <c r="O22" s="314"/>
+      <c r="P22" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="40">
+      <c r="Q22" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11740,17 +11864,17 @@
         <v>57</v>
       </c>
       <c r="M23" s="69"/>
-      <c r="N23" s="314">
+      <c r="N23" s="313">
         <v>1363.66</v>
       </c>
-      <c r="O23" s="315">
+      <c r="O23" s="314">
         <v>52</v>
       </c>
-      <c r="P23" s="291">
+      <c r="P23" s="344">
         <f t="shared" si="1"/>
         <v>-0.20000000000004547</v>
       </c>
-      <c r="Q23" s="40">
+      <c r="Q23" s="345">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -11781,13 +11905,13 @@
       <c r="K24" s="292"/>
       <c r="L24" s="45"/>
       <c r="M24" s="69"/>
-      <c r="N24" s="314"/>
-      <c r="O24" s="315"/>
-      <c r="P24" s="291">
+      <c r="N24" s="313"/>
+      <c r="O24" s="314"/>
+      <c r="P24" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="40">
+      <c r="Q24" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11826,17 +11950,17 @@
         <v>20</v>
       </c>
       <c r="M25" s="69"/>
-      <c r="N25" s="314">
+      <c r="N25" s="313">
         <v>616.15</v>
       </c>
-      <c r="O25" s="315">
+      <c r="O25" s="314">
         <v>20</v>
       </c>
-      <c r="P25" s="291">
+      <c r="P25" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="Q25" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11867,13 +11991,13 @@
       <c r="K26" s="292"/>
       <c r="L26" s="45"/>
       <c r="M26" s="69"/>
-      <c r="N26" s="314"/>
-      <c r="O26" s="315"/>
-      <c r="P26" s="291">
+      <c r="N26" s="313"/>
+      <c r="O26" s="314"/>
+      <c r="P26" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="Q26" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11912,22 +12036,22 @@
         <v>24</v>
       </c>
       <c r="M27" s="69"/>
-      <c r="N27" s="314">
+      <c r="N27" s="313">
         <v>370.12</v>
       </c>
-      <c r="O27" s="315">
+      <c r="O27" s="314">
         <v>24</v>
       </c>
-      <c r="P27" s="357">
+      <c r="P27" s="350">
         <f t="shared" si="1"/>
         <v>821.06000000000006</v>
       </c>
-      <c r="Q27" s="358">
+      <c r="Q27" s="351">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="R27" s="359"/>
-      <c r="S27" s="360" t="s">
+      <c r="R27" s="318"/>
+      <c r="S27" s="392" t="s">
         <v>100</v>
       </c>
       <c r="T27" s="6"/>
@@ -11955,18 +12079,18 @@
       <c r="K28" s="292"/>
       <c r="L28" s="45"/>
       <c r="M28" s="69"/>
-      <c r="N28" s="314"/>
-      <c r="O28" s="315"/>
-      <c r="P28" s="357">
+      <c r="N28" s="313"/>
+      <c r="O28" s="314"/>
+      <c r="P28" s="350">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="358">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="361"/>
-      <c r="S28" s="360"/>
+      <c r="Q28" s="351">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="319"/>
+      <c r="S28" s="392"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
@@ -12000,17 +12124,17 @@
         <v>231</v>
       </c>
       <c r="M29" s="69"/>
-      <c r="N29" s="314">
+      <c r="N29" s="313">
         <v>1048.74</v>
       </c>
-      <c r="O29" s="315">
+      <c r="O29" s="314">
         <v>231</v>
       </c>
-      <c r="P29" s="291">
+      <c r="P29" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="40">
+      <c r="Q29" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12041,13 +12165,13 @@
       <c r="K30" s="292"/>
       <c r="L30" s="45"/>
       <c r="M30" s="69"/>
-      <c r="N30" s="314"/>
-      <c r="O30" s="315"/>
-      <c r="P30" s="291">
+      <c r="N30" s="313"/>
+      <c r="O30" s="314"/>
+      <c r="P30" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="40">
+      <c r="Q30" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12086,22 +12210,22 @@
         <v>763</v>
       </c>
       <c r="M31" s="69"/>
-      <c r="N31" s="314">
+      <c r="N31" s="313">
         <v>17101.900000000001</v>
       </c>
-      <c r="O31" s="315">
+      <c r="O31" s="314">
         <v>713</v>
       </c>
-      <c r="P31" s="370">
+      <c r="P31" s="348">
         <f t="shared" si="1"/>
         <v>1052.1899999999987</v>
       </c>
-      <c r="Q31" s="371">
+      <c r="Q31" s="349">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="R31" s="110"/>
-      <c r="S31" s="372" t="s">
+      <c r="S31" s="326" t="s">
         <v>101</v>
       </c>
       <c r="T31" s="6"/>
@@ -12137,17 +12261,17 @@
         <v>7</v>
       </c>
       <c r="M32" s="69"/>
-      <c r="N32" s="314">
+      <c r="N32" s="313">
         <v>234.94</v>
       </c>
-      <c r="O32" s="315">
+      <c r="O32" s="314">
         <v>7</v>
       </c>
-      <c r="P32" s="291">
+      <c r="P32" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="40">
+      <c r="Q32" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12186,17 +12310,17 @@
         <v>540</v>
       </c>
       <c r="M33" s="69"/>
-      <c r="N33" s="314">
+      <c r="N33" s="313">
         <v>11173.8</v>
       </c>
-      <c r="O33" s="315">
+      <c r="O33" s="314">
         <v>540</v>
       </c>
-      <c r="P33" s="291">
+      <c r="P33" s="344">
         <f t="shared" si="1"/>
         <v>-3.7699999999986176</v>
       </c>
-      <c r="Q33" s="40">
+      <c r="Q33" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12235,22 +12359,22 @@
         <v>749</v>
       </c>
       <c r="M34" s="69"/>
-      <c r="N34" s="314">
+      <c r="N34" s="313">
         <v>16714.400000000001</v>
       </c>
-      <c r="O34" s="315">
+      <c r="O34" s="314">
         <v>1229</v>
       </c>
-      <c r="P34" s="370">
+      <c r="P34" s="348">
         <f t="shared" si="1"/>
         <v>-6530.5400000000009</v>
       </c>
-      <c r="Q34" s="371">
+      <c r="Q34" s="349">
         <f t="shared" si="2"/>
         <v>-480</v>
       </c>
       <c r="R34" s="110"/>
-      <c r="S34" s="373" t="s">
+      <c r="S34" s="327" t="s">
         <v>102</v>
       </c>
       <c r="T34" s="6"/>
@@ -12278,18 +12402,18 @@
       <c r="K35" s="292"/>
       <c r="L35" s="45"/>
       <c r="M35" s="69"/>
-      <c r="N35" s="314"/>
-      <c r="O35" s="315"/>
-      <c r="P35" s="291">
+      <c r="N35" s="313"/>
+      <c r="O35" s="314"/>
+      <c r="P35" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="40">
+      <c r="Q35" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R35" s="113"/>
-      <c r="S35" s="373" t="s">
+      <c r="S35" s="327" t="s">
         <v>102</v>
       </c>
       <c r="T35" s="6"/>
@@ -12325,22 +12449,22 @@
         <v>333</v>
       </c>
       <c r="M36" s="69"/>
-      <c r="N36" s="314">
+      <c r="N36" s="313">
         <v>10751.9</v>
       </c>
-      <c r="O36" s="315">
+      <c r="O36" s="314">
         <v>395</v>
       </c>
-      <c r="P36" s="370">
+      <c r="P36" s="348">
         <f t="shared" si="1"/>
         <v>-1690.1999999999989</v>
       </c>
-      <c r="Q36" s="371">
+      <c r="Q36" s="349">
         <f t="shared" si="2"/>
         <v>-62</v>
       </c>
       <c r="R36" s="70"/>
-      <c r="S36" s="373" t="s">
+      <c r="S36" s="327" t="s">
         <v>102</v>
       </c>
       <c r="T36" s="6"/>
@@ -12376,22 +12500,24 @@
         <v>106</v>
       </c>
       <c r="M37" s="69"/>
-      <c r="N37" s="314">
+      <c r="N37" s="313">
         <v>980</v>
       </c>
-      <c r="O37" s="315">
+      <c r="O37" s="314">
         <v>98</v>
       </c>
-      <c r="P37" s="291">
+      <c r="P37" s="348">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="Q37" s="40">
+      <c r="Q37" s="349">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="R37" s="70"/>
-      <c r="S37" s="245"/>
+      <c r="R37" s="340"/>
+      <c r="S37" s="341" t="s">
+        <v>102</v>
+      </c>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
@@ -12425,18 +12551,18 @@
         <v>-3</v>
       </c>
       <c r="M38" s="69"/>
-      <c r="N38" s="314"/>
-      <c r="O38" s="315"/>
-      <c r="P38" s="368">
+      <c r="N38" s="313"/>
+      <c r="O38" s="314"/>
+      <c r="P38" s="352">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
-      <c r="Q38" s="369">
+      <c r="Q38" s="353">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="R38" s="374"/>
-      <c r="S38" s="375" t="s">
+      <c r="R38" s="328"/>
+      <c r="S38" s="329" t="s">
         <v>103</v>
       </c>
       <c r="T38" s="6"/>
@@ -12464,13 +12590,13 @@
       <c r="K39" s="292"/>
       <c r="L39" s="45"/>
       <c r="M39" s="69"/>
-      <c r="N39" s="314"/>
-      <c r="O39" s="315"/>
-      <c r="P39" s="291">
+      <c r="N39" s="313"/>
+      <c r="O39" s="314"/>
+      <c r="P39" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="40">
+      <c r="Q39" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12509,22 +12635,22 @@
         <v>224</v>
       </c>
       <c r="M40" s="69"/>
-      <c r="N40" s="314">
+      <c r="N40" s="313">
         <v>3777.08</v>
       </c>
-      <c r="O40" s="315">
+      <c r="O40" s="314">
         <v>222</v>
       </c>
-      <c r="P40" s="370">
+      <c r="P40" s="348">
         <f t="shared" si="1"/>
         <v>22.050000000000182</v>
       </c>
-      <c r="Q40" s="371">
+      <c r="Q40" s="349">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R40" s="376"/>
-      <c r="S40" s="377" t="s">
+      <c r="R40" s="330"/>
+      <c r="S40" s="331" t="s">
         <v>104</v>
       </c>
       <c r="T40" s="6"/>
@@ -12560,22 +12686,22 @@
         <v>78</v>
       </c>
       <c r="M41" s="69"/>
-      <c r="N41" s="314">
+      <c r="N41" s="313">
         <v>2164.08</v>
       </c>
-      <c r="O41" s="315">
+      <c r="O41" s="314">
         <v>79</v>
       </c>
-      <c r="P41" s="370">
+      <c r="P41" s="348">
         <f t="shared" si="1"/>
         <v>14.900000000000091</v>
       </c>
-      <c r="Q41" s="371">
+      <c r="Q41" s="349">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="R41" s="376"/>
-      <c r="S41" s="377" t="s">
+      <c r="R41" s="330"/>
+      <c r="S41" s="331" t="s">
         <v>104</v>
       </c>
       <c r="T41" s="6"/>
@@ -12603,13 +12729,13 @@
       <c r="K42" s="292"/>
       <c r="L42" s="45"/>
       <c r="M42" s="69"/>
-      <c r="N42" s="314"/>
-      <c r="O42" s="315"/>
-      <c r="P42" s="291">
+      <c r="N42" s="313"/>
+      <c r="O42" s="314"/>
+      <c r="P42" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="40">
+      <c r="Q42" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12648,17 +12774,17 @@
         <v>58</v>
       </c>
       <c r="M43" s="69"/>
-      <c r="N43" s="314">
+      <c r="N43" s="313">
         <v>870</v>
       </c>
-      <c r="O43" s="315">
+      <c r="O43" s="314">
         <v>58</v>
       </c>
-      <c r="P43" s="291">
+      <c r="P43" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="40">
+      <c r="Q43" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12698,22 +12824,22 @@
         <v>129</v>
       </c>
       <c r="M44" s="69"/>
-      <c r="N44" s="314">
+      <c r="N44" s="313">
         <v>3268.96</v>
       </c>
-      <c r="O44" s="315">
+      <c r="O44" s="314">
         <v>136</v>
       </c>
-      <c r="P44" s="370">
+      <c r="P44" s="348">
         <f t="shared" si="1"/>
         <v>-144.32000000000016</v>
       </c>
-      <c r="Q44" s="371">
+      <c r="Q44" s="349">
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-      <c r="R44" s="379"/>
-      <c r="S44" s="380" t="s">
+      <c r="R44" s="333"/>
+      <c r="S44" s="334" t="s">
         <v>105</v>
       </c>
       <c r="T44" s="6"/>
@@ -12741,13 +12867,13 @@
       <c r="K45" s="292"/>
       <c r="L45" s="45"/>
       <c r="M45" s="69"/>
-      <c r="N45" s="314"/>
-      <c r="O45" s="315"/>
-      <c r="P45" s="291">
+      <c r="N45" s="313"/>
+      <c r="O45" s="314"/>
+      <c r="P45" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="40">
+      <c r="Q45" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12787,22 +12913,22 @@
         <v>21</v>
       </c>
       <c r="M46" s="69"/>
-      <c r="N46" s="362">
-        <v>0</v>
-      </c>
-      <c r="O46" s="363">
-        <v>0</v>
-      </c>
-      <c r="P46" s="291">
+      <c r="N46" s="320">
+        <v>0</v>
+      </c>
+      <c r="O46" s="321">
+        <v>0</v>
+      </c>
+      <c r="P46" s="344">
         <f t="shared" si="1"/>
         <v>19734.400000000001</v>
       </c>
-      <c r="Q46" s="40">
+      <c r="Q46" s="345">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="R46" s="129"/>
-      <c r="S46" s="388" t="s">
+      <c r="S46" s="338" t="s">
         <v>108</v>
       </c>
       <c r="T46" s="6"/>
@@ -12830,13 +12956,13 @@
       <c r="K47" s="294"/>
       <c r="L47" s="133"/>
       <c r="M47" s="69"/>
-      <c r="N47" s="314"/>
-      <c r="O47" s="315"/>
-      <c r="P47" s="291">
+      <c r="N47" s="313"/>
+      <c r="O47" s="314"/>
+      <c r="P47" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="40">
+      <c r="Q47" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12867,13 +12993,13 @@
       <c r="K48" s="295"/>
       <c r="L48" s="137"/>
       <c r="M48" s="135"/>
-      <c r="N48" s="314"/>
-      <c r="O48" s="315"/>
-      <c r="P48" s="291">
+      <c r="N48" s="313"/>
+      <c r="O48" s="314"/>
+      <c r="P48" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="40">
+      <c r="Q48" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12904,13 +13030,13 @@
       <c r="K49" s="295"/>
       <c r="L49" s="137"/>
       <c r="M49" s="135"/>
-      <c r="N49" s="314"/>
-      <c r="O49" s="315"/>
-      <c r="P49" s="291">
+      <c r="N49" s="313"/>
+      <c r="O49" s="314"/>
+      <c r="P49" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="40">
+      <c r="Q49" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12941,13 +13067,13 @@
       <c r="K50" s="295"/>
       <c r="L50" s="137"/>
       <c r="M50" s="135"/>
-      <c r="N50" s="314"/>
-      <c r="O50" s="315"/>
-      <c r="P50" s="291">
+      <c r="N50" s="313"/>
+      <c r="O50" s="314"/>
+      <c r="P50" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="40">
+      <c r="Q50" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12978,13 +13104,13 @@
       <c r="K51" s="295"/>
       <c r="L51" s="137"/>
       <c r="M51" s="135"/>
-      <c r="N51" s="314"/>
-      <c r="O51" s="315"/>
-      <c r="P51" s="291">
+      <c r="N51" s="313"/>
+      <c r="O51" s="314"/>
+      <c r="P51" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="40">
+      <c r="Q51" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13015,13 +13141,13 @@
       <c r="K52" s="295"/>
       <c r="L52" s="137"/>
       <c r="M52" s="135"/>
-      <c r="N52" s="314"/>
-      <c r="O52" s="315"/>
-      <c r="P52" s="291">
+      <c r="N52" s="313"/>
+      <c r="O52" s="314"/>
+      <c r="P52" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="40">
+      <c r="Q52" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13064,22 +13190,22 @@
         <v>19</v>
       </c>
       <c r="M53" s="135"/>
-      <c r="N53" s="314">
+      <c r="N53" s="313">
         <v>452.87</v>
       </c>
-      <c r="O53" s="315">
+      <c r="O53" s="314">
         <v>19</v>
       </c>
-      <c r="P53" s="370">
+      <c r="P53" s="348">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="Q53" s="371">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="379"/>
-      <c r="S53" s="372" t="s">
+      <c r="Q53" s="349">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="333"/>
+      <c r="S53" s="326" t="s">
         <v>104</v>
       </c>
       <c r="T53" s="6"/>
@@ -13107,13 +13233,13 @@
       <c r="K54" s="295"/>
       <c r="L54" s="137"/>
       <c r="M54" s="135"/>
-      <c r="N54" s="314"/>
-      <c r="O54" s="315"/>
-      <c r="P54" s="291">
+      <c r="N54" s="313"/>
+      <c r="O54" s="314"/>
+      <c r="P54" s="344">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="40">
+      <c r="Q54" s="345">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13148,18 +13274,20 @@
       <c r="K55" s="295"/>
       <c r="L55" s="137"/>
       <c r="M55" s="135"/>
-      <c r="N55" s="314"/>
-      <c r="O55" s="315"/>
-      <c r="P55" s="291">
+      <c r="N55" s="313"/>
+      <c r="O55" s="314"/>
+      <c r="P55" s="354">
         <f t="shared" si="1"/>
         <v>29.22</v>
       </c>
-      <c r="Q55" s="40">
+      <c r="Q55" s="355">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R55" s="98"/>
-      <c r="S55" s="309"/>
+      <c r="S55" s="339" t="s">
+        <v>109</v>
+      </c>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
@@ -13185,8 +13313,8 @@
       <c r="K56" s="295"/>
       <c r="L56" s="137"/>
       <c r="M56" s="135"/>
-      <c r="N56" s="314"/>
-      <c r="O56" s="315"/>
+      <c r="N56" s="313"/>
+      <c r="O56" s="314"/>
       <c r="P56" s="291">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13201,40 +13329,36 @@
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
     </row>
-    <row r="57" spans="2:22" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:22" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="151" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="106"/>
       <c r="D57" s="30"/>
       <c r="E57" s="28"/>
-      <c r="F57" s="29">
-        <v>600</v>
-      </c>
-      <c r="G57" s="139">
-        <v>5</v>
-      </c>
+      <c r="F57" s="29"/>
+      <c r="G57" s="139"/>
       <c r="H57" s="131">
         <f t="shared" ref="H57:I58" si="5">F57+C57</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I57" s="126">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J57" s="66"/>
       <c r="K57" s="295"/>
       <c r="L57" s="137"/>
       <c r="M57" s="135"/>
-      <c r="N57" s="316"/>
-      <c r="O57" s="317"/>
+      <c r="N57" s="315"/>
+      <c r="O57" s="316"/>
       <c r="P57" s="291">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="40">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R57" s="98"/>
       <c r="S57" s="272"/>
@@ -13280,10 +13404,10 @@
     <row r="59" spans="2:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="165"/>
       <c r="D59" s="167"/>
-      <c r="F59" s="321" t="s">
+      <c r="F59" s="359" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="321"/>
+      <c r="G59" s="359"/>
       <c r="H59" s="214">
         <f>SUM(H6:H39)</f>
         <v>61947.58</v>
@@ -13297,7 +13421,7 @@
       <c r="L59" s="169"/>
       <c r="M59" s="170"/>
       <c r="N59" s="170"/>
-      <c r="O59" s="311"/>
+      <c r="O59" s="310"/>
       <c r="P59" s="172"/>
       <c r="Q59" s="173"/>
       <c r="R59" s="174"/>
@@ -13488,7 +13612,7 @@
     <mergeCell ref="N3:O4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 04  ABRIL 2024/INVENTARIO ALMACEN   Abril-24 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 04  ABRIL 2024/INVENTARIO ALMACEN   Abril-24 rtr.xlsx
@@ -10912,10 +10912,10 @@
   <dimension ref="A2:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
+      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -13611,7 +13611,7 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="N3:O4"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.56999999999999995" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
